--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\1.Segundo Semestre\Programación\Claustro-de-Profesores\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34151D8-624D-4869-8569-AF0D48034244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -945,7 +946,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1132,7 +1133,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1409,12 +1410,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1455,7 @@
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>109</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>119</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>121</v>
       </c>
@@ -2496,7 +2496,7 @@
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:7" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>122</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>123</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>124</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>125</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>126</v>
       </c>
@@ -2603,7 +2603,7 @@
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>127</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>128</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
     </row>
-    <row r="57" spans="1:7" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>129</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>130</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>131</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>132</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>133</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
     </row>
-    <row r="62" spans="1:7" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>134</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>135</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>136</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>137</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>157</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>158</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>159</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>160</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
     </row>
-    <row r="70" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>161</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>168</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>169</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>170</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>171</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>172</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>173</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>174</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>175</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>176</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>177</v>
       </c>
@@ -3194,7 +3194,7 @@
       <c r="F80" s="20"/>
       <c r="G80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>178</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>179</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>180</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>181</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>195</v>
       </c>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="G85" s="21"/>
     </row>
-    <row r="86" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>196</v>
       </c>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>197</v>
       </c>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>198</v>
       </c>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>199</v>
       </c>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="G89" s="21"/>
     </row>
-    <row r="90" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>200</v>
       </c>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>209</v>
       </c>
@@ -3434,7 +3434,7 @@
       <c r="F91" s="22"/>
       <c r="G91" s="22"/>
     </row>
-    <row r="92" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>210</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>211</v>
       </c>
@@ -3476,7 +3476,7 @@
       <c r="F93" s="22"/>
       <c r="G93" s="22"/>
     </row>
-    <row r="94" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>212</v>
       </c>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="G94" s="22"/>
     </row>
-    <row r="95" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>213</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>214</v>
       </c>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="G96" s="22"/>
     </row>
-    <row r="97" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>215</v>
       </c>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="G97" s="22"/>
     </row>
-    <row r="98" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>216</v>
       </c>
@@ -3581,7 +3581,7 @@
       <c r="F98" s="22"/>
       <c r="G98" s="22"/>
     </row>
-    <row r="99" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>217</v>
       </c>
@@ -3600,7 +3600,7 @@
       <c r="F99" s="22"/>
       <c r="G99" s="22"/>
     </row>
-    <row r="100" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>218</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>219</v>
       </c>
@@ -3642,7 +3642,7 @@
       <c r="F101" s="22"/>
       <c r="G101" s="22"/>
     </row>
-    <row r="102" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>220</v>
       </c>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G102" s="22"/>
     </row>
-    <row r="103" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>221</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="F103" s="22"/>
       <c r="G103" s="22"/>
     </row>
-    <row r="104" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>222</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>223</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="F105" s="22"/>
       <c r="G105" s="22"/>
     </row>
-    <row r="106" spans="1:7" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>224</v>
       </c>
@@ -3748,20 +3748,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E106">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="DEPARTAMENTO DOCENTE DE MATEMATICA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E106" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
